--- a/plantilla_EFE.xlsx
+++ b/plantilla_EFE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aucbastidas\Desktop\Formato Notas Masivas\EFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xalbgaray\Desktop\APP_FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Clase de pedido </t>
   </si>
@@ -74,9 +74,6 @@
     <t>ASIGNACION</t>
   </si>
   <si>
-    <t>R02</t>
-  </si>
-  <si>
     <t>UTILIZACION</t>
   </si>
   <si>
@@ -86,31 +83,16 @@
     <t>Z1MA</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>ZNOT</t>
-  </si>
-  <si>
     <t>0602</t>
   </si>
   <si>
-    <t>PZA</t>
-  </si>
-  <si>
-    <t>E326</t>
-  </si>
-  <si>
-    <t>E286</t>
-  </si>
-  <si>
-    <t>E310</t>
-  </si>
-  <si>
-    <t>NC por Centralización Axionlog - Ticket #SR-3424</t>
+    <t>Pedido Cliente</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>E2</t>
   </si>
 </sst>
 </file>
@@ -238,37 +220,7 @@
     <cellStyle name="Normal 5 185" xfId="9"/>
     <cellStyle name="Porcentaje 2" xfId="6"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -353,13 +305,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Diseño1" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="totalRow" dxfId="7"/>
-      <tableStyleElement type="firstColumn" dxfId="6"/>
-      <tableStyleElement type="lastColumn" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -636,27 +588,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="A1:S1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="11.453125" style="5"/>
-    <col min="6" max="7" width="11.453125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" style="5" customWidth="1"/>
-    <col min="9" max="11" width="11.453125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.453125" style="7"/>
-    <col min="13" max="15" width="11.453125" style="5"/>
-    <col min="16" max="16" width="17.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" style="5"/>
-    <col min="19" max="19" width="58.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.1796875" style="5" customWidth="1"/>
-    <col min="21" max="16384" width="11.453125" style="5"/>
+    <col min="1" max="5" width="11.42578125" style="5"/>
+    <col min="6" max="7" width="11.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="5" customWidth="1"/>
+    <col min="9" max="11" width="11.42578125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="7"/>
+    <col min="13" max="15" width="11.42578125" style="5"/>
+    <col min="16" max="16" width="17.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="5"/>
+    <col min="19" max="19" width="58.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" style="5" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +638,9 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -705,166 +661,78 @@
         <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4">
-        <v>900617</v>
-      </c>
-      <c r="F2" s="6">
-        <v>45779</v>
-      </c>
-      <c r="G2" s="6">
-        <v>45779</v>
-      </c>
-      <c r="H2" s="6">
-        <v>45779</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="4">
-        <v>1</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="10">
-        <v>41352.710400000004</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>5081075366</v>
-      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4">
-        <v>900617</v>
-      </c>
-      <c r="F3" s="6">
-        <v>45779</v>
-      </c>
-      <c r="G3" s="6">
-        <v>45779</v>
-      </c>
-      <c r="H3" s="6">
-        <v>45779</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="10">
-        <v>59628.556799999998</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>5081075598</v>
-      </c>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4">
-        <v>900617</v>
-      </c>
-      <c r="F4" s="6">
-        <v>45779</v>
-      </c>
-      <c r="G4" s="6">
-        <v>45779</v>
-      </c>
-      <c r="H4" s="6">
-        <v>45779</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="10">
-        <v>49589.673600000002</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>5081075735</v>
-      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="8"/>
       <c r="C5" s="4"/>
@@ -883,9 +751,9 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -902,9 +770,9 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -921,7 +789,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -940,7 +808,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -959,7 +827,7 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -978,7 +846,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -997,7 +865,7 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1016,7 +884,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1035,7 +903,7 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1054,7 +922,7 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1073,7 +941,7 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1092,7 +960,7 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1111,7 +979,7 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1130,7 +998,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1149,7 +1017,7 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1168,7 +1036,7 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1187,7 +1055,7 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1206,7 +1074,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1225,7 +1093,7 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1244,7 +1112,7 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1263,7 +1131,7 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1282,7 +1150,7 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1301,7 +1169,7 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1320,7 +1188,7 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1339,7 +1207,7 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1358,7 +1226,7 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1377,7 +1245,7 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1396,7 +1264,7 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1415,7 +1283,7 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1434,7 +1302,7 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1453,7 +1321,7 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1472,7 +1340,7 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1491,7 +1359,7 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1510,7 +1378,7 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1529,7 +1397,7 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1548,7 +1416,7 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1567,7 +1435,7 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1586,7 +1454,7 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1605,7 +1473,7 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1624,7 +1492,7 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1643,7 +1511,7 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1662,7 +1530,7 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1681,7 +1549,7 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1700,7 +1568,7 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1719,7 +1587,7 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1738,7 +1606,7 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1757,7 +1625,7 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1776,44 +1644,6 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
